--- a/Doc/Schedules/Time Sheets/Tyrel Timesheet Week #4.xlsx
+++ b/Doc/Schedules/Time Sheets/Tyrel Timesheet Week #4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b2fd23d168c23ec/Documents/GitHub/Sound_Sentinel/Doc/Schedules/Time Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyrel\OneDrive\Documents\GitHub\Sound_Sentinel\Doc\Schedules\Time Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{273886B1-F970-48FE-9E17-A1ECB52657A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{273886B1-F970-48FE-9E17-A1ECB52657A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{548591F8-14DA-4ACE-B175-21DFB122F27D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>First Presentation Setup</t>
-  </si>
-  <si>
-    <t>??</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -495,8 +492,8 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
+      <c r="D8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
